--- a/intermodcompat.xlsx
+++ b/intermodcompat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hayde\Documents\Programming\Forge Modding\AssemblyLineMachines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E43E5023-402D-4B0C-94CA-1A38AF2F8C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D08E7B0-4BF5-4CCF-AD33-0170E847BA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="6525" windowWidth="28800" windowHeight="15435" xr2:uid="{6BB9E534-1B3E-4BF2-A9DB-3CFF7DA04B78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6BB9E534-1B3E-4BF2-A9DB-3CFF7DA04B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>JEI</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>ASSEMBLY LINE MACHINES INTER-MOD COMPATIBILITY</t>
+  </si>
+  <si>
+    <t>1.18.x</t>
+  </si>
+  <si>
+    <t>1.15.2</t>
   </si>
 </sst>
 </file>
@@ -465,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3DCB6E-1A9E-4940-9D56-7E7A1BBB5383}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,8 +507,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1.18</v>
+      <c r="A3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
@@ -549,12 +555,30 @@
       </c>
       <c r="E5" s="4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
